--- a/personal_assignment/ItemDatabase.xlsx
+++ b/personal_assignment/ItemDatabase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\Game Study\C_Study_Sparta_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\Game Study\C_Study_Sparta_2023\personal_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>무쇠갑옷</t>
   </si>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>ItemDatabase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청동 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디선가 사용된 것 같은 검입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -512,6 +520,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
